--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -67,195 +70,201 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>cooks</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>baking</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>always</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>always</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
@@ -265,34 +274,34 @@
     <t>coffee</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>much</t>
   </si>
   <si>
     <t>buy</t>
@@ -301,10 +310,10 @@
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -665,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3565891472868217</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.921875</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3131313131313131</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1297297297297297</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8560371517027864</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L7">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M7">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,21 +985,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>156</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.688135593220339</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L12">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6753246753246753</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L13">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,47 +1191,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>0.6623376623376623</v>
+      </c>
+      <c r="L15">
+        <v>51</v>
+      </c>
+      <c r="M15">
+        <v>51</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>26</v>
-      </c>
-      <c r="K15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L15">
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <v>30</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6420545746388443</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L16">
-        <v>800</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>800</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>446</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6122448979591837</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>786</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>786</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6056338028169014</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5897435897435898</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5897435897435898</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5857142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5769230769230769</v>
+        <v>0.578125</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,12 +1451,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.5694444444444444</v>
@@ -1449,16 +1482,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L26">
         <v>37</v>
       </c>
-      <c r="K26">
-        <v>0.5657142857142857</v>
-      </c>
-      <c r="L26">
-        <v>99</v>
-      </c>
       <c r="M26">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5625</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1496,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5614035087719298</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5396825396825397</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5089820359281437</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L32">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1652,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4923076923076923</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1678,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4918032786885246</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1709,16 +1742,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.4819277108433735</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1730,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.4705882352941176</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1756,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.4691358024691358</v>
+        <v>0.48</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1782,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.46</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1808,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.4193548387096774</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1834,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.4156626506024096</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L41">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M41">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1860,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.4078947368421053</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1886,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.3809523809523809</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1912,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.3684210526315789</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="L44">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="M44">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1938,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>84</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.3666666666666666</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1964,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.3657587548638132</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L46">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1990,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.3529411764705883</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2016,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.3513513513513514</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2042,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.3455882352941176</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L49">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2068,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>267</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.326027397260274</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L50">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2094,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>492</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.316546762589928</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L51">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="M51">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2120,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>95</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2976190476190476</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2146,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2772277227722773</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2172,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.271523178807947</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2198,21 +2231,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.2706766917293233</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2224,21 +2257,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.2685185185185185</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2250,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.2612612612612613</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2276,21 +2309,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.2535885167464115</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L58">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2302,21 +2335,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.2285714285714286</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2328,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.2282023681377826</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="L60">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M60">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2351,76 +2384,76 @@
         <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.2142857142857143</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.2100313479623825</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L62">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>252</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.2</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L63">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M63">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2432,47 +2465,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1946308724832215</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="L64">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1923076923076923</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2484,99 +2517,99 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1829268292682927</v>
+        <v>0.1843790012804097</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>134</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1713554987212276</v>
+        <v>0.1810810810810811</v>
       </c>
       <c r="L67">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="M67">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>648</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1702702702702703</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="L68">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M68">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>307</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1512915129151292</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L69">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2588,21 +2621,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1412429378531073</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2614,21 +2647,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.1295454545454545</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L71">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M71">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2640,21 +2673,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>383</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1271929824561404</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L72">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2666,21 +2699,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>398</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>0.1231527093596059</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L73">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M73">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2692,47 +2725,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>178</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1196172248803828</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L74">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M74">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1143552311435523</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L75">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M75">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2744,21 +2777,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1065292096219931</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L76">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M76">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2770,21 +2803,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>260</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1050420168067227</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2796,15 +2829,15 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L78">
         <v>27</v>
@@ -2822,47 +2855,47 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K79">
-        <v>0.08464849354375897</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L79">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M79">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="N79">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>638</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K80">
-        <v>0.07835820895522388</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L80">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M80">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2874,137 +2907,189 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>988</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K81">
-        <v>0.06830601092896176</v>
+        <v>0.07102803738317758</v>
       </c>
       <c r="L81">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>341</v>
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K82">
-        <v>0.06598984771573604</v>
+        <v>0.07040229885057471</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M82">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>368</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K83">
-        <v>0.05350553505535055</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="L83">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>513</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K84">
-        <v>0.05194805194805195</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L84">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1095</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K85">
-        <v>0.04414587332053743</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="L85">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>498</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86">
+        <v>0.05394990366088632</v>
+      </c>
+      <c r="L86">
+        <v>28</v>
+      </c>
+      <c r="M86">
+        <v>31</v>
+      </c>
+      <c r="N86">
+        <v>0.9</v>
+      </c>
+      <c r="O86">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87">
+        <v>0.04423243712055507</v>
+      </c>
+      <c r="L87">
+        <v>51</v>
+      </c>
+      <c r="M87">
+        <v>55</v>
+      </c>
+      <c r="N87">
+        <v>0.93</v>
+      </c>
+      <c r="O87">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
